--- a/AIIP- Progress Tracker.xlsx
+++ b/AIIP- Progress Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Extras\AIIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2E624B-F973-4242-A95E-D746A1D7708F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7DE30A-F5E8-47F0-A803-142A4A1FBFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{569A8A1A-8E61-42AD-8A0D-3385DA43C9D9}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8928" xr2:uid="{569A8A1A-8E61-42AD-8A0D-3385DA43C9D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>SR. No.</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>Created repository and need to maitain records over github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install and Setup Linux </t>
+  </si>
+  <si>
+    <t>Downloaded virtual machine by oracle and setup the centOS</t>
+  </si>
+  <si>
+    <t>Learn Basics of Git</t>
+  </si>
+  <si>
+    <t>Learn fundamental need and requirement of Git. Version control, pull, push, branching and merging in specific.</t>
   </si>
 </sst>
 </file>
@@ -130,12 +142,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -143,6 +149,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA2A784-B962-41AE-805A-39A761C7E524}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H6" sqref="H5:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,14 +487,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -505,169 +517,193 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>44707</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>44708</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="7"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4">
+        <v>44708</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44710</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44712</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44714</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
